--- a/Public/excel_template/供应商承接模块模板.xlsx
+++ b/Public/excel_template/供应商承接模块模板.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,13 @@
   </si>
   <si>
     <t>排序（整数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basicId</t>
+  </si>
+  <si>
+    <t>供应商承接模块id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,67 +411,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3">
         <v>76</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
